--- a/data/test_mc_df.xlsx
+++ b/data/test_mc_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09F246-5FE6-43E3-93B0-5F3BADE84515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA626241-A5ED-4CDD-AB77-FAF1B7A34E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{A739B818-A2EC-4385-AF4D-9577876737DD}"/>
   </bookViews>
@@ -4256,7 +4256,7 @@
   <dimension ref="A1:N928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
